--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5850,11 +5850,21 @@
       <c r="C208" t="n">
         <v>1498016</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>300828</v>
+      </c>
+      <c r="E208" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F208" t="n">
+        <v>87691362000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>59686888789000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5871,6 +5881,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>268500</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1420277</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5883,7 +5909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11299,11 +11325,21 @@
       <c r="C208" t="n">
         <v>1371107</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>261386</v>
+      </c>
+      <c r="E208" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F208" t="n">
+        <v>30765132200</v>
+      </c>
+      <c r="G208" t="n">
+        <v>46348997079000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.07000000029802322</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11320,6 +11356,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>111000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1290707</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11332,7 +11384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16748,11 +16800,21 @@
       <c r="C208" t="n">
         <v>534250</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>97447</v>
+      </c>
+      <c r="E208" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F208" t="n">
+        <v>29185376500</v>
+      </c>
+      <c r="G208" t="n">
+        <v>27492630653000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1099999994039536</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16769,6 +16831,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>288000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>311849</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16781,7 +16859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22197,11 +22275,21 @@
       <c r="C208" t="n">
         <v>7643998</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>791366</v>
+      </c>
+      <c r="E208" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>22910045700</v>
+      </c>
+      <c r="G208" t="n">
+        <v>25476000000000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -22218,6 +22306,22 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>27450</v>
+      </c>
+      <c r="C210" t="n">
+        <v>7768023</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22230,7 +22334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27646,11 +27750,21 @@
       <c r="C208" t="n">
         <v>320850</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>274552</v>
+      </c>
+      <c r="E208" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F208" t="n">
+        <v>166653064000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>53885281412000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.3100000023841858</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -27660,13 +27774,29 @@
         <v>567000</v>
       </c>
       <c r="C209" t="n">
-        <v>339689</v>
+        <v>340933</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>528000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>328655</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27679,7 +27809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33095,11 +33225,21 @@
       <c r="C208" t="n">
         <v>3952415</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>431611</v>
+      </c>
+      <c r="E208" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F208" t="n">
+        <v>59907606800</v>
+      </c>
+      <c r="G208" t="n">
+        <v>42530179087200</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -33109,7 +33249,7 @@
         <v>136600</v>
       </c>
       <c r="C209" t="n">
-        <v>2588785</v>
+        <v>2604923</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -33117,6 +33257,22 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>126400</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4266516</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,11 +5876,21 @@
       <c r="C209" t="n">
         <v>1416294</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>330412</v>
+      </c>
+      <c r="E209" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F209" t="n">
+        <v>91193712000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>56513143416000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1599999964237213</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5897,6 +5907,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>269000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>686561</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5909,7 +5935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11351,11 +11377,21 @@
       <c r="C209" t="n">
         <v>1179087</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>266309</v>
+      </c>
+      <c r="E209" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F209" t="n">
+        <v>30465749600</v>
+      </c>
+      <c r="G209" t="n">
+        <v>45049492488000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.07000000029802322</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11372,6 +11408,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>112000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>865031</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11384,7 +11436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16826,11 +16878,21 @@
       <c r="C209" t="n">
         <v>200106</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>98478</v>
+      </c>
+      <c r="E209" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F209" t="n">
+        <v>29149488000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>27171347824000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1099999994039536</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16847,6 +16909,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>294500</v>
+      </c>
+      <c r="C211" t="n">
+        <v>216280</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16859,7 +16937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22301,11 +22379,21 @@
       <c r="C209" t="n">
         <v>6496008</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>805366</v>
+      </c>
+      <c r="E209" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>23114004200</v>
+      </c>
+      <c r="G209" t="n">
+        <v>25256000000000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -22322,6 +22410,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>26150</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7973720</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22334,7 +22438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27776,11 +27880,21 @@
       <c r="C209" t="n">
         <v>340933</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>270540</v>
+      </c>
+      <c r="E209" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F209" t="n">
+        <v>153396180000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>50334356772000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.300000011920929</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -27790,13 +27904,29 @@
         <v>528000</v>
       </c>
       <c r="C210" t="n">
-        <v>328655</v>
+        <v>329126</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>525000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>160878</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27809,7 +27939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33251,11 +33381,21 @@
       <c r="C209" t="n">
         <v>2604923</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>441358</v>
+      </c>
+      <c r="E209" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F209" t="n">
+        <v>60289502800</v>
+      </c>
+      <c r="G209" t="n">
+        <v>41856069620400</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -33265,7 +33405,7 @@
         <v>126400</v>
       </c>
       <c r="C210" t="n">
-        <v>4266516</v>
+        <v>4289853</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -33273,6 +33413,22 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>123000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2051463</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5902,11 +5902,21 @@
       <c r="C210" t="n">
         <v>1420277</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>378845</v>
+      </c>
+      <c r="E210" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F210" t="n">
+        <v>101719882500</v>
+      </c>
+      <c r="G210" t="n">
+        <v>54977460171000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5918,11 +5928,157 @@
       <c r="C211" t="n">
         <v>686561</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>403577</v>
+      </c>
+      <c r="E211" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F211" t="n">
+        <v>108562213000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>55079839054000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>264000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>666772</v>
+      </c>
+      <c r="D212" t="n">
+        <v>403079</v>
+      </c>
+      <c r="E212" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F212" t="n">
+        <v>106412856000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>54056050224000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>270500</v>
+      </c>
+      <c r="C213" t="n">
+        <v>692464</v>
+      </c>
+      <c r="D213" t="n">
+        <v>405235</v>
+      </c>
+      <c r="E213" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F213" t="n">
+        <v>109616067500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>55386975703000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>269000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>494203</v>
+      </c>
+      <c r="D214" t="n">
+        <v>404845</v>
+      </c>
+      <c r="E214" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F214" t="n">
+        <v>108903305000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>55079839054000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>275500</v>
+      </c>
+      <c r="C215" t="n">
+        <v>807526</v>
+      </c>
+      <c r="D215" t="n">
+        <v>453088</v>
+      </c>
+      <c r="E215" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F215" t="n">
+        <v>124825744000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>56410764533000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.2199999988079071</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>278500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>681153</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>272500</v>
+      </c>
+      <c r="C217" t="n">
+        <v>579023</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5935,7 +6091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11403,11 +11559,21 @@
       <c r="C210" t="n">
         <v>1290707</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>248412</v>
+      </c>
+      <c r="E210" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27573732000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>43710608970000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.05999999865889549</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11419,11 +11585,157 @@
       <c r="C211" t="n">
         <v>865031</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>256318</v>
+      </c>
+      <c r="E211" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F211" t="n">
+        <v>28707616000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>44104398240000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>110100</v>
+      </c>
+      <c r="C212" t="n">
+        <v>536664</v>
+      </c>
+      <c r="D212" t="n">
+        <v>243797</v>
+      </c>
+      <c r="E212" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F212" t="n">
+        <v>26842049700</v>
+      </c>
+      <c r="G212" t="n">
+        <v>43356198627000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>113700</v>
+      </c>
+      <c r="C213" t="n">
+        <v>699593</v>
+      </c>
+      <c r="D213" t="n">
+        <v>243320</v>
+      </c>
+      <c r="E213" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27665484000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>44773839999000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>116000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>959520</v>
+      </c>
+      <c r="D214" t="n">
+        <v>251058</v>
+      </c>
+      <c r="E214" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F214" t="n">
+        <v>29122728000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>45679555320000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>118600</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1238570</v>
+      </c>
+      <c r="D215" t="n">
+        <v>250683</v>
+      </c>
+      <c r="E215" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F215" t="n">
+        <v>29731003800</v>
+      </c>
+      <c r="G215" t="n">
+        <v>46703407422000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>118000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>783292</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>117000</v>
+      </c>
+      <c r="C217" t="n">
+        <v>667473</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11436,7 +11748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16904,11 +17216,21 @@
       <c r="C210" t="n">
         <v>311849</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>79710</v>
+      </c>
+      <c r="E210" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F210" t="n">
+        <v>22956480000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>26436987072000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -16920,11 +17242,157 @@
       <c r="C211" t="n">
         <v>216280</v>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="D211" t="n">
+        <v>50141</v>
+      </c>
+      <c r="E211" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F211" t="n">
+        <v>14766524500</v>
+      </c>
+      <c r="G211" t="n">
+        <v>27033655183000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>290000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>127187</v>
+      </c>
+      <c r="D212" t="n">
+        <v>49127</v>
+      </c>
+      <c r="E212" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F212" t="n">
+        <v>14246830000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>26620577260000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>300500</v>
+      </c>
+      <c r="C213" t="n">
+        <v>181548</v>
+      </c>
+      <c r="D213" t="n">
+        <v>48855</v>
+      </c>
+      <c r="E213" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F213" t="n">
+        <v>14680927500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>27584425747000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>298500</v>
+      </c>
+      <c r="C214" t="n">
+        <v>163489</v>
+      </c>
+      <c r="D214" t="n">
+        <v>48855</v>
+      </c>
+      <c r="E214" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F214" t="n">
+        <v>14583217500</v>
+      </c>
+      <c r="G214" t="n">
+        <v>27400835559000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>300000</v>
+      </c>
+      <c r="C215" t="n">
+        <v>175934</v>
+      </c>
+      <c r="D215" t="n">
+        <v>47884</v>
+      </c>
+      <c r="E215" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F215" t="n">
+        <v>14365200000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>27538528200000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>300000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>167662</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>298000</v>
+      </c>
+      <c r="C217" t="n">
+        <v>134033</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16937,7 +17405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22405,11 +22873,21 @@
       <c r="C210" t="n">
         <v>7768023</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>806497</v>
+      </c>
+      <c r="E210" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>22138342650</v>
+      </c>
+      <c r="G210" t="n">
+        <v>24156000000000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -22419,13 +22897,159 @@
         <v>26150</v>
       </c>
       <c r="C211" t="n">
-        <v>7973720</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>8090477</v>
+      </c>
+      <c r="D211" t="n">
+        <v>808496</v>
+      </c>
+      <c r="E211" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21142170400</v>
+      </c>
+      <c r="G211" t="n">
+        <v>23012000000000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>26300</v>
+      </c>
+      <c r="C212" t="n">
+        <v>7392826</v>
+      </c>
+      <c r="D212" t="n">
+        <v>805680</v>
+      </c>
+      <c r="E212" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>21189384000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>23144000000000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>27050</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4105719</v>
+      </c>
+      <c r="D213" t="n">
+        <v>801820</v>
+      </c>
+      <c r="E213" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>21689231000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>23804000000000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>26400</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4352613</v>
+      </c>
+      <c r="D214" t="n">
+        <v>800820</v>
+      </c>
+      <c r="E214" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F214" t="n">
+        <v>21141648000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>23232000000000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>26250</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3838511</v>
+      </c>
+      <c r="D215" t="n">
+        <v>788820</v>
+      </c>
+      <c r="E215" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>20706525000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>23100000000000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.09000000357627869</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>26500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4577984</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>26300</v>
+      </c>
+      <c r="C217" t="n">
+        <v>7153065</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22438,7 +23062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27906,11 +28530,21 @@
       <c r="C210" t="n">
         <v>329126</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>322550</v>
+      </c>
+      <c r="E210" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F210" t="n">
+        <v>170306400000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>46872205248000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.3600000143051147</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -27920,13 +28554,159 @@
         <v>525000</v>
       </c>
       <c r="C211" t="n">
-        <v>160878</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>161433</v>
+      </c>
+      <c r="D211" t="n">
+        <v>331901</v>
+      </c>
+      <c r="E211" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F211" t="n">
+        <v>174248025000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>46605885900000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>521000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>267709</v>
+      </c>
+      <c r="D212" t="n">
+        <v>364951</v>
+      </c>
+      <c r="E212" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F212" t="n">
+        <v>190139471000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>46250793436000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.4099999964237213</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>538000</v>
+      </c>
+      <c r="C213" t="n">
+        <v>182710</v>
+      </c>
+      <c r="D213" t="n">
+        <v>394493</v>
+      </c>
+      <c r="E213" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F213" t="n">
+        <v>212237234000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>47759936408000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.4399999976158142</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>534000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>262860</v>
+      </c>
+      <c r="D214" t="n">
+        <v>466314</v>
+      </c>
+      <c r="E214" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F214" t="n">
+        <v>249011676000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>47404843944000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.5299999713897705</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>536000</v>
+      </c>
+      <c r="C215" t="n">
+        <v>231897</v>
+      </c>
+      <c r="D215" t="n">
+        <v>485961</v>
+      </c>
+      <c r="E215" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F215" t="n">
+        <v>260475096000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>47582390176000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.550000011920929</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>568000</v>
+      </c>
+      <c r="C216" t="n">
+        <v>345051</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>586000</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1117932</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27939,7 +28719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33407,11 +34187,21 @@
       <c r="C210" t="n">
         <v>4289853</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>560175</v>
+      </c>
+      <c r="E210" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F210" t="n">
+        <v>70806120000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>38730653001600</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.1800000071525574</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -33421,13 +34211,159 @@
         <v>123000</v>
       </c>
       <c r="C211" t="n">
-        <v>2051463</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>2066794</v>
+      </c>
+      <c r="D211" t="n">
+        <v>534199</v>
+      </c>
+      <c r="E211" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F211" t="n">
+        <v>65706477000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>37688847462000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.1700000017881393</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>126800</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4418401</v>
+      </c>
+      <c r="D212" t="n">
+        <v>497865</v>
+      </c>
+      <c r="E212" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F212" t="n">
+        <v>63129282000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>38853218359200</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>129600</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1860111</v>
+      </c>
+      <c r="D213" t="n">
+        <v>498973</v>
+      </c>
+      <c r="E213" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F213" t="n">
+        <v>64666900800</v>
+      </c>
+      <c r="G213" t="n">
+        <v>39711175862400</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>126600</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2065914</v>
+      </c>
+      <c r="D214" t="n">
+        <v>501442</v>
+      </c>
+      <c r="E214" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F214" t="n">
+        <v>63482557200</v>
+      </c>
+      <c r="G214" t="n">
+        <v>38791935680400</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>126500</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1031163</v>
+      </c>
+      <c r="D215" t="n">
+        <v>491785</v>
+      </c>
+      <c r="E215" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F215" t="n">
+        <v>62210802500</v>
+      </c>
+      <c r="G215" t="n">
+        <v>38761294341000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.1599999964237213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>130500</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1627651</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>129100</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2817706</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6058,11 +6058,21 @@
       <c r="C216" t="n">
         <v>681153</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>490365</v>
+      </c>
+      <c r="E216" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F216" t="n">
+        <v>136566652500</v>
+      </c>
+      <c r="G216" t="n">
+        <v>57025037831000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.239999994635582</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -6079,6 +6089,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>271500</v>
+      </c>
+      <c r="C218" t="n">
+        <v>384305</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6091,7 +6117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11715,11 +11741,21 @@
       <c r="C216" t="n">
         <v>783292</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>250600</v>
+      </c>
+      <c r="E216" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F216" t="n">
+        <v>29570800000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>46467133860000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.05999999865889549</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11736,6 +11772,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>117400</v>
+      </c>
+      <c r="C218" t="n">
+        <v>606010</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11748,7 +11800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17372,11 +17424,21 @@
       <c r="C216" t="n">
         <v>167662</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>35707</v>
+      </c>
+      <c r="E216" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10712100000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>27538528200000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.03999999910593033</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -17386,13 +17448,29 @@
         <v>298000</v>
       </c>
       <c r="C217" t="n">
-        <v>134033</v>
+        <v>156922</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>294000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>126523</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17405,7 +17483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23029,11 +23107,21 @@
       <c r="C216" t="n">
         <v>4577984</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>788820</v>
+      </c>
+      <c r="E216" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F216" t="n">
+        <v>20903730000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>23320000000000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -23050,6 +23138,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>26200</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2858273</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23062,7 +23166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28686,11 +28790,21 @@
       <c r="C216" t="n">
         <v>345051</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>565036</v>
+      </c>
+      <c r="E216" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F216" t="n">
+        <v>320940448000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>50423129888000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.6399999856948853</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -28707,6 +28821,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>603000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>251045</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28719,7 +28849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34343,11 +34473,21 @@
       <c r="C216" t="n">
         <v>1627651</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>457732</v>
+      </c>
+      <c r="E216" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F216" t="n">
+        <v>59734026000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>39986947917000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -34365,6 +34505,22 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>130900</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1331927</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6136,11 +6136,21 @@
       <c r="C219" t="n">
         <v>384305</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>514753</v>
+      </c>
+      <c r="E219" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F219" t="n">
+        <v>139755439500</v>
+      </c>
+      <c r="G219" t="n">
+        <v>55591733469000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6157,6 +6167,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>264000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>413452</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6169,7 +6195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11871,11 +11897,21 @@
       <c r="C219" t="n">
         <v>619912</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>262583</v>
+      </c>
+      <c r="E219" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F219" t="n">
+        <v>30827244200</v>
+      </c>
+      <c r="G219" t="n">
+        <v>46230860298000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.07000000029802322</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11892,6 +11928,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>114500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>615044</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11904,7 +11956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17606,11 +17658,21 @@
       <c r="C219" t="n">
         <v>132443</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>35326</v>
+      </c>
+      <c r="E219" t="n">
+        <v>91795094</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10385844000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>26987757636000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.03999999910593033</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17627,6 +17689,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>295500</v>
+      </c>
+      <c r="C221" t="n">
+        <v>149235</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17639,7 +17717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23341,11 +23419,21 @@
       <c r="C219" t="n">
         <v>2858273</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>819254</v>
+      </c>
+      <c r="E219" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F219" t="n">
+        <v>21464454800</v>
+      </c>
+      <c r="G219" t="n">
+        <v>23056000000000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23362,6 +23450,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>25350</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4771489</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23374,7 +23478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29076,11 +29180,21 @@
       <c r="C219" t="n">
         <v>251045</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>972971</v>
+      </c>
+      <c r="E219" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F219" t="n">
+        <v>586701513000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>53530188948000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.100000023841858</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -29097,6 +29211,22 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>574000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>282778</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29109,7 +29239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34811,11 +34941,21 @@
       <c r="C219" t="n">
         <v>1331927</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>574218</v>
+      </c>
+      <c r="E219" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F219" t="n">
+        <v>75165136200</v>
+      </c>
+      <c r="G219" t="n">
+        <v>40109513274600</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -34833,6 +34973,22 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>123000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1433995</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6318,11 +6318,21 @@
       <c r="C226" t="n">
         <v>390393</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>534323</v>
+      </c>
+      <c r="E226" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F226" t="n">
+        <v>137588172500</v>
+      </c>
+      <c r="G226" t="n">
+        <v>52725124745000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.2599999904632568</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6339,6 +6349,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>261500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>289061</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6351,7 +6377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12235,11 +12261,21 @@
       <c r="C226" t="n">
         <v>632037</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>340846</v>
+      </c>
+      <c r="E226" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F226" t="n">
+        <v>37902075200</v>
+      </c>
+      <c r="G226" t="n">
+        <v>43789366824000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12256,6 +12292,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>477958</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12268,7 +12320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18152,11 +18204,21 @@
       <c r="C226" t="n">
         <v>104305</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>45054</v>
+      </c>
+      <c r="E226" t="n">
+        <v>90732583</v>
+      </c>
+      <c r="F226" t="n">
+        <v>13223349000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>26630013110500</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.05000000074505806</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18173,6 +18235,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>304500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>229815</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18185,7 +18263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24069,11 +24147,21 @@
       <c r="C226" t="n">
         <v>2791063</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>1296114</v>
+      </c>
+      <c r="E226" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>32143627200</v>
+      </c>
+      <c r="G226" t="n">
+        <v>21824000000000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24090,6 +24178,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>25300</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2199577</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24102,7 +24206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29986,11 +30090,21 @@
       <c r="C226" t="n">
         <v>187975</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>1245574</v>
+      </c>
+      <c r="E226" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F226" t="n">
+        <v>682574552000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>48647667568000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.399999976158142</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -30000,13 +30114,29 @@
         <v>554000</v>
       </c>
       <c r="C227" t="n">
-        <v>904507</v>
+        <v>984466</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>554000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>177537</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30019,7 +30149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35903,11 +36033,21 @@
       <c r="C226" t="n">
         <v>1722922</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>1077431</v>
+      </c>
+      <c r="E226" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F226" t="n">
+        <v>121749703000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>34624713522000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.3499999940395355</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -35925,6 +36065,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>110500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1348372</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_2.xlsx
+++ b/b_list_2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,11 +6344,21 @@
       <c r="C227" t="n">
         <v>402781</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>525714</v>
+      </c>
+      <c r="E227" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F227" t="n">
+        <v>137474211000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>53544155809000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.2599999904632568</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6365,6 +6375,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>261500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>497272</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6377,7 +6403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12287,11 +12313,21 @@
       <c r="C227" t="n">
         <v>527546</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>340142</v>
+      </c>
+      <c r="E227" t="n">
+        <v>393789270</v>
+      </c>
+      <c r="F227" t="n">
+        <v>38504074400</v>
+      </c>
+      <c r="G227" t="n">
+        <v>44576945364000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.09000000357627869</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12308,6 +12344,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>114100</v>
+      </c>
+      <c r="C229" t="n">
+        <v>609629</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12320,7 +12372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18230,11 +18282,21 @@
       <c r="C227" t="n">
         <v>132670</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>45354</v>
+      </c>
+      <c r="E227" t="n">
+        <v>90732583</v>
+      </c>
+      <c r="F227" t="n">
+        <v>13515492000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>27038309734000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.05000000074505806</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18251,6 +18313,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>309500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>263436</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18263,7 +18341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24173,11 +24251,21 @@
       <c r="C227" t="n">
         <v>2545479</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>1289452</v>
+      </c>
+      <c r="E227" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32687608200</v>
+      </c>
+      <c r="G227" t="n">
+        <v>22308000000000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.1500000059604645</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24194,6 +24282,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>24600</v>
+      </c>
+      <c r="C229" t="n">
+        <v>3088484</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24206,7 +24310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30116,11 +30220,21 @@
       <c r="C227" t="n">
         <v>984466</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>1551352</v>
+      </c>
+      <c r="E227" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F227" t="n">
+        <v>859449008000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>49180306264000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -30137,6 +30251,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>535000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>246693</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30149,7 +30279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36059,11 +36189,21 @@
       <c r="C227" t="n">
         <v>1161054</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>1002642</v>
+      </c>
+      <c r="E227" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F227" t="n">
+        <v>114200923800</v>
+      </c>
+      <c r="G227" t="n">
+        <v>34900485576600</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.3300000131130219</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -36081,6 +36221,22 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>107800</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1800329</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
